--- a/data/trans_dic/P20_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho</t>
+          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>54,64%</t>
+          <t>52,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,55%</t>
+          <t>32,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>42,97%</t>
+          <t>43,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>26,98%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,72; 40,93</t>
+          <t>18,3; 51,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,46; 33,02</t>
+          <t>6,81; 37,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42,18; 67,22</t>
+          <t>36,71; 67,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,14; 50,04</t>
+          <t>21,68; 47,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,08; 52,02</t>
+          <t>33,03; 54,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,0; 37,28</t>
+          <t>17,18; 37,0</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>34,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>30,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>24,05%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,17; 41,76</t>
+          <t>10,81; 56,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 40,87</t>
+          <t>5,23; 59,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,28; 42,82</t>
+          <t>21,72; 47,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,34; 36,79</t>
+          <t>14,21; 38,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,94; 37,91</t>
+          <t>20,31; 44,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,26; 33,53</t>
+          <t>14,11; 44,34</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>20,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,81%</t>
+          <t>40,18%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>26,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>32,63%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,05; 27,05</t>
+          <t>13,19; 34,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,87; 41,88</t>
+          <t>11,73; 33,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,43; 37,76</t>
+          <t>20,99; 38,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,15; 44,76</t>
+          <t>31,37; 49,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,09; 31,26</t>
+          <t>20,41; 33,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,29; 37,1</t>
+          <t>25,49; 40,28</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>24,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>23,82%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,47; 25,3</t>
+          <t>8,65; 24,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,07; 27,03</t>
+          <t>15,02; 33,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,27; 29,8</t>
+          <t>13,9; 30,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,96; 32,39</t>
+          <t>16,35; 33,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,49; 25,46</t>
+          <t>13,69; 24,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,78; 27,1</t>
+          <t>18,21; 30,45</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>18,59%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,44; 26,03</t>
+          <t>10,01; 29,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,81; 24,08</t>
+          <t>10,14; 28,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,66; 31,77</t>
+          <t>9,81; 33,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,8; 33,4</t>
+          <t>9,68; 32,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,48; 26,36</t>
+          <t>13,0; 27,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,09; 25,68</t>
+          <t>12,42; 26,9</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>20,01%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,3; 26,54</t>
+          <t>5,76; 32,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,9; 20,07</t>
+          <t>2,29; 19,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,12; 36,66</t>
+          <t>10,3; 35,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,89; 45,29</t>
+          <t>16,77; 46,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,02; 28,02</t>
+          <t>10,93; 29,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,76; 31,87</t>
+          <t>12,09; 31,57</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>30,19%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>24,99%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,57; 24,21</t>
+          <t>16,3; 28,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,4; 23,82</t>
+          <t>14,8; 27,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,5; 34,4</t>
+          <t>24,63; 33,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,64; 33,93</t>
+          <t>25,15; 34,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,56; 27,83</t>
+          <t>22,41; 29,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,64; 27,56</t>
+          <t>21,62; 28,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho (tasa de respuesta: 99,83%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>27295</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21243</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>61924</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>43778</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>89219</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>65021</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15756; 44003</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7283; 39628</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>43162; 79322</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>29045; 63409</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>67269; 110475</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>41413; 89177</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>36756</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>39815</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>45454</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>40489</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>82210</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>80304</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14788; 77370</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8830; 100157</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>28949; 63076</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>23469; 63032</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>54860; 120316</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>47110; 148042</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>31434</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>32939</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>62712</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>106112</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>94147</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>139051</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18424; 48319</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19017; 54295</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>45203; 82452</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>82848; 131764</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>72494; 120288</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>108611; 171665</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>25194</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>42745</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>40279</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>53723</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>65473</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>96468</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14146; 39982</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>28039; 63016</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26590; 59260</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>35697; 73558</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>48556; 88529</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>73759; 123350</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>26540</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>28407</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>20517</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>22454</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>47057</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>50861</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13900; 40852</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15966; 44174</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10154; 34796</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>11246; 37719</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>31497; 65854</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>33975; 73605</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13976</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7774</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>22964</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>40209</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>36941</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>47983</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5199; 29096</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2440; 21113</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>11027; 38249</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>22353; 61855</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>21565; 57258</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>28995; 75710</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>161196</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>172924</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>253851</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>306764</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>415047</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>479688</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>123088; 213251</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>131536; 246187</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>213780; 294983</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>259255; 354124</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>363857; 478314</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>415080; 555329</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>